--- a/~$Workbreakdownstructure.xlsx
+++ b/~$Workbreakdownstructure.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="100">
   <si>
     <t>C</t>
   </si>
@@ -335,9 +335,6 @@
   </si>
   <si>
     <t xml:space="preserve">is niet fancy genoeg </t>
-  </si>
-  <si>
-    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -960,10 +957,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J44"/>
+  <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -1824,35 +1821,6 @@
       </c>
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E41" s="12" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E42" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="F42" s="15">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E43" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="F43" s="15">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E44" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="F44" s="15">
-        <v>127</v>
-      </c>
     </row>
   </sheetData>
   <autoFilter ref="A4:J38"/>
